--- a/resultados/Venda de Drone/Sem SPAD 1 Drones/vel40/field_100ha_100ha_2%_12m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Sem SPAD 1 Drones/vel40/field_100ha_100ha_2%_12m_0_TSP/Planilha_Unificada.xlsx
@@ -2802,28 +2802,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>350.963350088224</v>
+        <v>429.2042004433065</v>
       </c>
       <c r="AB2" t="n">
-        <v>480.2035390009509</v>
+        <v>587.2561221994804</v>
       </c>
       <c r="AC2" t="n">
-        <v>434.3735872085992</v>
+        <v>531.2092221159053</v>
       </c>
       <c r="AD2" t="n">
-        <v>350963.350088224</v>
+        <v>429204.2004433065</v>
       </c>
       <c r="AE2" t="n">
-        <v>480203.5390009509</v>
+        <v>587256.1221994804</v>
       </c>
       <c r="AF2" t="n">
         <v>9.730515242124919e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>16.12916666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>434373.5872085993</v>
+        <v>531209.2221159053</v>
       </c>
     </row>
     <row r="3">
@@ -2908,28 +2908,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>151.162966372127</v>
+        <v>200.0714073050872</v>
       </c>
       <c r="AB3" t="n">
-        <v>206.8278394296648</v>
+        <v>273.7465260022395</v>
       </c>
       <c r="AC3" t="n">
-        <v>187.0884807192524</v>
+        <v>247.6205417663283</v>
       </c>
       <c r="AD3" t="n">
-        <v>151162.9663721269</v>
+        <v>200071.4073050872</v>
       </c>
       <c r="AE3" t="n">
-        <v>206827.8394296648</v>
+        <v>273746.5260022395</v>
       </c>
       <c r="AF3" t="n">
         <v>1.74845666612617e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.975</v>
       </c>
       <c r="AH3" t="n">
-        <v>187088.4807192524</v>
+        <v>247620.5417663283</v>
       </c>
     </row>
     <row r="4">
@@ -3014,28 +3014,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>126.6525648393689</v>
+        <v>165.8066499207618</v>
       </c>
       <c r="AB4" t="n">
-        <v>173.2916267299624</v>
+        <v>226.8639732946204</v>
       </c>
       <c r="AC4" t="n">
-        <v>156.7529170912287</v>
+        <v>205.2123940890334</v>
       </c>
       <c r="AD4" t="n">
-        <v>126652.5648393689</v>
+        <v>165806.6499207618</v>
       </c>
       <c r="AE4" t="n">
-        <v>173291.6267299624</v>
+        <v>226863.9732946204</v>
       </c>
       <c r="AF4" t="n">
         <v>2.018501818537109e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>8</v>
+        <v>7.774999999999999</v>
       </c>
       <c r="AH4" t="n">
-        <v>156752.9170912287</v>
+        <v>205212.3940890334</v>
       </c>
     </row>
     <row r="5">
@@ -3120,28 +3120,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>120.6950160475814</v>
+        <v>159.747615902489</v>
       </c>
       <c r="AB5" t="n">
-        <v>165.1402456445396</v>
+        <v>218.5737356451083</v>
       </c>
       <c r="AC5" t="n">
-        <v>149.3794923760609</v>
+        <v>197.7133650853665</v>
       </c>
       <c r="AD5" t="n">
-        <v>120695.0160475814</v>
+        <v>159747.615902489</v>
       </c>
       <c r="AE5" t="n">
-        <v>165140.2456445396</v>
+        <v>218573.7356451083</v>
       </c>
       <c r="AF5" t="n">
         <v>2.155991678531518e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>8</v>
+        <v>7.279166666666666</v>
       </c>
       <c r="AH5" t="n">
-        <v>149379.4923760609</v>
+        <v>197713.3650853665</v>
       </c>
     </row>
     <row r="6">
@@ -3226,28 +3226,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>107.041756285029</v>
+        <v>146.1616759476411</v>
       </c>
       <c r="AB6" t="n">
-        <v>146.4592532981151</v>
+        <v>199.9848532295253</v>
       </c>
       <c r="AC6" t="n">
-        <v>132.4813877202357</v>
+        <v>180.8985795178605</v>
       </c>
       <c r="AD6" t="n">
-        <v>107041.756285029</v>
+        <v>146161.6759476411</v>
       </c>
       <c r="AE6" t="n">
-        <v>146459.2532981151</v>
+        <v>199984.8532295253</v>
       </c>
       <c r="AF6" t="n">
         <v>2.244060525837526e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>7</v>
+        <v>6.995833333333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>132481.3877202357</v>
+        <v>180898.5795178605</v>
       </c>
     </row>
     <row r="7">
@@ -3332,28 +3332,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>104.304930512051</v>
+        <v>143.424850174663</v>
       </c>
       <c r="AB7" t="n">
-        <v>142.7146075352967</v>
+        <v>196.2402074667069</v>
       </c>
       <c r="AC7" t="n">
-        <v>129.0941256933762</v>
+        <v>177.5113174910009</v>
       </c>
       <c r="AD7" t="n">
-        <v>104304.930512051</v>
+        <v>143424.850174663</v>
       </c>
       <c r="AE7" t="n">
-        <v>142714.6075352967</v>
+        <v>196240.2074667069</v>
       </c>
       <c r="AF7" t="n">
         <v>2.302634973040625e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>7</v>
+        <v>6.816666666666666</v>
       </c>
       <c r="AH7" t="n">
-        <v>129094.1256933762</v>
+        <v>177511.3174910009</v>
       </c>
     </row>
     <row r="8">
@@ -3438,28 +3438,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>102.3585665198239</v>
+        <v>141.478486182436</v>
       </c>
       <c r="AB8" t="n">
-        <v>140.0515064536139</v>
+        <v>193.5771063850241</v>
       </c>
       <c r="AC8" t="n">
-        <v>126.6851872412425</v>
+        <v>175.1023790388672</v>
       </c>
       <c r="AD8" t="n">
-        <v>102358.5665198239</v>
+        <v>141478.486182436</v>
       </c>
       <c r="AE8" t="n">
-        <v>140051.5064536139</v>
+        <v>193577.1063850241</v>
       </c>
       <c r="AF8" t="n">
         <v>2.342864882759537e-05</v>
       </c>
       <c r="AG8" t="n">
-        <v>7</v>
+        <v>6.699999999999999</v>
       </c>
       <c r="AH8" t="n">
-        <v>126685.1872412425</v>
+        <v>175102.3790388672</v>
       </c>
     </row>
     <row r="9">
@@ -3544,28 +3544,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>102.4954093530014</v>
+        <v>141.6153290156135</v>
       </c>
       <c r="AB9" t="n">
-        <v>140.238740855047</v>
+        <v>193.7643407864572</v>
       </c>
       <c r="AC9" t="n">
-        <v>126.8545522541881</v>
+        <v>175.2717440518128</v>
       </c>
       <c r="AD9" t="n">
-        <v>102495.4093530015</v>
+        <v>141615.3290156135</v>
       </c>
       <c r="AE9" t="n">
-        <v>140238.740855047</v>
+        <v>193764.3407864572</v>
       </c>
       <c r="AF9" t="n">
         <v>2.341471149932196e-05</v>
       </c>
       <c r="AG9" t="n">
-        <v>7</v>
+        <v>6.704166666666667</v>
       </c>
       <c r="AH9" t="n">
-        <v>126854.552254188</v>
+        <v>175271.7440518128</v>
       </c>
     </row>
   </sheetData>
@@ -3841,28 +3841,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>237.7823863688064</v>
+        <v>305.5120650007853</v>
       </c>
       <c r="AB2" t="n">
-        <v>325.344351248173</v>
+        <v>418.0150855751368</v>
       </c>
       <c r="AC2" t="n">
-        <v>294.2939429888089</v>
+        <v>378.1203124957023</v>
       </c>
       <c r="AD2" t="n">
-        <v>237782.3863688064</v>
+        <v>305512.0650007853</v>
       </c>
       <c r="AE2" t="n">
-        <v>325344.351248173</v>
+        <v>418015.0855751368</v>
       </c>
       <c r="AF2" t="n">
         <v>1.337713774701998e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.8375</v>
       </c>
       <c r="AH2" t="n">
-        <v>294293.9429888088</v>
+        <v>378120.3124957023</v>
       </c>
     </row>
     <row r="3">
@@ -3947,28 +3947,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>135.7966139714057</v>
+        <v>174.4514907641332</v>
       </c>
       <c r="AB3" t="n">
-        <v>185.8029181593855</v>
+        <v>238.6922259199766</v>
       </c>
       <c r="AC3" t="n">
-        <v>168.0701484263395</v>
+        <v>215.9117748848862</v>
       </c>
       <c r="AD3" t="n">
-        <v>135796.6139714057</v>
+        <v>174451.4907641332</v>
       </c>
       <c r="AE3" t="n">
-        <v>185802.9181593855</v>
+        <v>238692.2259199765</v>
       </c>
       <c r="AF3" t="n">
         <v>2.0953091928927e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.195833333333335</v>
       </c>
       <c r="AH3" t="n">
-        <v>168070.1484263395</v>
+        <v>215911.7748848862</v>
       </c>
     </row>
     <row r="4">
@@ -4053,28 +4053,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>116.0548264846974</v>
+        <v>154.6755378586441</v>
       </c>
       <c r="AB4" t="n">
-        <v>158.7913335738892</v>
+        <v>211.6338947012324</v>
       </c>
       <c r="AC4" t="n">
-        <v>143.6365115626772</v>
+        <v>191.435852821044</v>
       </c>
       <c r="AD4" t="n">
-        <v>116054.8264846974</v>
+        <v>154675.5378586441</v>
       </c>
       <c r="AE4" t="n">
-        <v>158791.3335738892</v>
+        <v>211633.8947012324</v>
       </c>
       <c r="AF4" t="n">
         <v>2.350973432000307e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>8</v>
+        <v>7.304166666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>143636.5115626772</v>
+        <v>191435.852821044</v>
       </c>
     </row>
     <row r="5">
@@ -4159,28 +4159,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>101.4867460035639</v>
+        <v>140.174777185215</v>
       </c>
       <c r="AB5" t="n">
-        <v>138.8586431612608</v>
+        <v>191.7933142194455</v>
       </c>
       <c r="AC5" t="n">
-        <v>125.6061691473171</v>
+        <v>173.4888294940029</v>
       </c>
       <c r="AD5" t="n">
-        <v>101486.7460035639</v>
+        <v>140174.777185215</v>
       </c>
       <c r="AE5" t="n">
-        <v>138858.6431612608</v>
+        <v>191793.3142194455</v>
       </c>
       <c r="AF5" t="n">
         <v>2.485338323099904e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>7</v>
+        <v>6.908333333333332</v>
       </c>
       <c r="AH5" t="n">
-        <v>125606.1691473171</v>
+        <v>173488.8294940029</v>
       </c>
     </row>
     <row r="6">
@@ -4265,28 +4265,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>98.84254108273387</v>
+        <v>137.530572264385</v>
       </c>
       <c r="AB6" t="n">
-        <v>135.240725334495</v>
+        <v>188.1753963926797</v>
       </c>
       <c r="AC6" t="n">
-        <v>122.333540320157</v>
+        <v>170.2162006668429</v>
       </c>
       <c r="AD6" t="n">
-        <v>98842.54108273388</v>
+        <v>137530.572264385</v>
       </c>
       <c r="AE6" t="n">
-        <v>135240.725334495</v>
+        <v>188175.3963926797</v>
       </c>
       <c r="AF6" t="n">
         <v>2.55697212087018e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>7</v>
+        <v>6.716666666666668</v>
       </c>
       <c r="AH6" t="n">
-        <v>122333.540320157</v>
+        <v>170216.2006668429</v>
       </c>
     </row>
     <row r="7">
@@ -4371,28 +4371,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>98.92164157133628</v>
+        <v>137.6096727529874</v>
       </c>
       <c r="AB7" t="n">
-        <v>135.348954112668</v>
+        <v>188.2836251708526</v>
       </c>
       <c r="AC7" t="n">
-        <v>122.4314398956413</v>
+        <v>170.3141002423271</v>
       </c>
       <c r="AD7" t="n">
-        <v>98921.64157133628</v>
+        <v>137609.6727529874</v>
       </c>
       <c r="AE7" t="n">
-        <v>135348.954112668</v>
+        <v>188283.6251708526</v>
       </c>
       <c r="AF7" t="n">
         <v>2.553139012013657e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>7</v>
+        <v>6.725000000000001</v>
       </c>
       <c r="AH7" t="n">
-        <v>122431.4398956413</v>
+        <v>170314.1002423271</v>
       </c>
     </row>
   </sheetData>
@@ -4668,28 +4668,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>118.5069400021966</v>
+        <v>155.8615471533977</v>
       </c>
       <c r="AB2" t="n">
-        <v>162.1464234681433</v>
+        <v>213.2566449413508</v>
       </c>
       <c r="AC2" t="n">
-        <v>146.6713963863231</v>
+        <v>192.9037300557903</v>
       </c>
       <c r="AD2" t="n">
-        <v>118506.9400021966</v>
+        <v>155861.5471533977</v>
       </c>
       <c r="AE2" t="n">
-        <v>162146.4234681433</v>
+        <v>213256.6449413508</v>
       </c>
       <c r="AF2" t="n">
         <v>2.929602385617491e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.183333333333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>146671.3963863231</v>
+        <v>192903.7300557903</v>
       </c>
     </row>
     <row r="3">
@@ -4774,28 +4774,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>99.41132773284563</v>
+        <v>127.4446185631012</v>
       </c>
       <c r="AB3" t="n">
-        <v>136.0189643222735</v>
+        <v>174.3753495777165</v>
       </c>
       <c r="AC3" t="n">
-        <v>123.0375052712075</v>
+        <v>157.7332109514081</v>
       </c>
       <c r="AD3" t="n">
-        <v>99411.32773284563</v>
+        <v>127444.6185631012</v>
       </c>
       <c r="AE3" t="n">
-        <v>136018.9643222735</v>
+        <v>174375.3495777165</v>
       </c>
       <c r="AF3" t="n">
         <v>3.407437540258503e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.033333333333332</v>
       </c>
       <c r="AH3" t="n">
-        <v>123037.5052712075</v>
+        <v>157733.2109514081</v>
       </c>
     </row>
   </sheetData>
@@ -5071,28 +5071,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>148.3513027203125</v>
+        <v>195.7641533627063</v>
       </c>
       <c r="AB2" t="n">
-        <v>202.9807971794083</v>
+        <v>267.8531511356441</v>
       </c>
       <c r="AC2" t="n">
-        <v>183.6085947820014</v>
+        <v>242.2896223255952</v>
       </c>
       <c r="AD2" t="n">
-        <v>148351.3027203125</v>
+        <v>195764.1533627062</v>
       </c>
       <c r="AE2" t="n">
-        <v>202980.7971794083</v>
+        <v>267853.1511356441</v>
       </c>
       <c r="AF2" t="n">
         <v>2.183610361265445e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.508333333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>183608.5947820014</v>
+        <v>242289.6223255952</v>
       </c>
     </row>
     <row r="3">
@@ -5177,28 +5177,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>106.1934597450739</v>
+        <v>134.6080157415865</v>
       </c>
       <c r="AB3" t="n">
-        <v>145.298576547947</v>
+        <v>184.1766256240948</v>
       </c>
       <c r="AC3" t="n">
-        <v>131.4314843300833</v>
+        <v>166.5990669681004</v>
       </c>
       <c r="AD3" t="n">
-        <v>106193.4597450739</v>
+        <v>134608.0157415865</v>
       </c>
       <c r="AE3" t="n">
-        <v>145298.576547947</v>
+        <v>184176.6256240947</v>
       </c>
       <c r="AF3" t="n">
         <v>2.891303383893226e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.179166666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>131431.4843300833</v>
+        <v>166599.0669681004</v>
       </c>
     </row>
     <row r="4">
@@ -5283,28 +5283,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>92.90739344415566</v>
+        <v>130.8035085392899</v>
       </c>
       <c r="AB4" t="n">
-        <v>127.1199944951623</v>
+        <v>178.9711310269031</v>
       </c>
       <c r="AC4" t="n">
-        <v>114.9878406346104</v>
+        <v>161.8903774693055</v>
       </c>
       <c r="AD4" t="n">
-        <v>92907.39344415566</v>
+        <v>130803.5085392899</v>
       </c>
       <c r="AE4" t="n">
-        <v>127119.9944951623</v>
+        <v>178971.1310269031</v>
       </c>
       <c r="AF4" t="n">
         <v>3.042307787383885e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.824999999999999</v>
       </c>
       <c r="AH4" t="n">
-        <v>114987.8406346104</v>
+        <v>161890.3774693055</v>
       </c>
     </row>
   </sheetData>
@@ -5580,28 +5580,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>97.80679178388746</v>
+        <v>134.7102793221105</v>
       </c>
       <c r="AB2" t="n">
-        <v>133.8235674497799</v>
+        <v>184.3165471665182</v>
       </c>
       <c r="AC2" t="n">
-        <v>121.0516339949652</v>
+        <v>166.7256345948962</v>
       </c>
       <c r="AD2" t="n">
-        <v>97806.79178388746</v>
+        <v>134710.2793221105</v>
       </c>
       <c r="AE2" t="n">
-        <v>133823.5674497799</v>
+        <v>184316.5471665182</v>
       </c>
       <c r="AF2" t="n">
         <v>3.692099711101973e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.4375</v>
       </c>
       <c r="AH2" t="n">
-        <v>121051.6339949652</v>
+        <v>166725.6345948962</v>
       </c>
     </row>
     <row r="3">
@@ -5686,28 +5686,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>97.37395733184906</v>
+        <v>134.277444870072</v>
       </c>
       <c r="AB3" t="n">
-        <v>133.2313442571929</v>
+        <v>183.7243239739312</v>
       </c>
       <c r="AC3" t="n">
-        <v>120.515931752688</v>
+        <v>166.189932352619</v>
       </c>
       <c r="AD3" t="n">
-        <v>97373.95733184906</v>
+        <v>134277.444870072</v>
       </c>
       <c r="AE3" t="n">
-        <v>133231.3442571929</v>
+        <v>183724.3239739312</v>
       </c>
       <c r="AF3" t="n">
         <v>3.733545479100887e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.354166666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>120515.931752688</v>
+        <v>166189.932352619</v>
       </c>
     </row>
   </sheetData>
@@ -5983,28 +5983,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>262.237718392954</v>
+        <v>330.2002192847413</v>
       </c>
       <c r="AB2" t="n">
-        <v>358.8052154168693</v>
+        <v>451.7945074309431</v>
       </c>
       <c r="AC2" t="n">
-        <v>324.5613492437651</v>
+        <v>408.6758737393068</v>
       </c>
       <c r="AD2" t="n">
-        <v>262237.718392954</v>
+        <v>330200.2192847413</v>
       </c>
       <c r="AE2" t="n">
-        <v>358805.2154168693</v>
+        <v>451794.5074309431</v>
       </c>
       <c r="AF2" t="n">
         <v>1.237183968941753e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.54583333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>324561.3492437651</v>
+        <v>408675.8737393068</v>
       </c>
     </row>
     <row r="3">
@@ -6089,28 +6089,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>139.7648251483574</v>
+        <v>178.5332201359595</v>
       </c>
       <c r="AB3" t="n">
-        <v>191.2323997568097</v>
+        <v>244.2770281196974</v>
       </c>
       <c r="AC3" t="n">
-        <v>172.9814479204325</v>
+        <v>220.9635714009865</v>
       </c>
       <c r="AD3" t="n">
-        <v>139764.8251483574</v>
+        <v>178533.2201359595</v>
       </c>
       <c r="AE3" t="n">
-        <v>191232.3997568097</v>
+        <v>244277.0281196974</v>
       </c>
       <c r="AF3" t="n">
         <v>1.991721396033667e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.4125</v>
       </c>
       <c r="AH3" t="n">
-        <v>172981.4479204325</v>
+        <v>220963.5714009865</v>
       </c>
     </row>
     <row r="4">
@@ -6195,28 +6195,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>118.7084160500421</v>
+        <v>157.4426456188634</v>
       </c>
       <c r="AB4" t="n">
-        <v>162.4220918853013</v>
+        <v>215.4199736149412</v>
       </c>
       <c r="AC4" t="n">
-        <v>146.9207553966507</v>
+        <v>194.8605936770248</v>
       </c>
       <c r="AD4" t="n">
-        <v>118708.4160500421</v>
+        <v>157442.6456188634</v>
       </c>
       <c r="AE4" t="n">
-        <v>162422.0918853013</v>
+        <v>215419.9736149412</v>
       </c>
       <c r="AF4" t="n">
         <v>2.258464051496011e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>8</v>
+        <v>7.420833333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>146920.7553966507</v>
+        <v>194860.5936770248</v>
       </c>
     </row>
     <row r="5">
@@ -6301,28 +6301,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>113.7310789385496</v>
+        <v>142.8247106461059</v>
       </c>
       <c r="AB5" t="n">
-        <v>155.6118796647449</v>
+        <v>195.419070087448</v>
       </c>
       <c r="AC5" t="n">
-        <v>140.7605002722291</v>
+        <v>176.7685483107448</v>
       </c>
       <c r="AD5" t="n">
-        <v>113731.0789385496</v>
+        <v>142824.7106461059</v>
       </c>
       <c r="AE5" t="n">
-        <v>155611.8796647449</v>
+        <v>195419.070087448</v>
       </c>
       <c r="AF5" t="n">
         <v>2.39082986559833e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>8</v>
+        <v>7.008333333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>140760.5002722291</v>
+        <v>176768.5483107448</v>
       </c>
     </row>
     <row r="6">
@@ -6407,28 +6407,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>100.6149494198102</v>
+        <v>139.4164987963359</v>
       </c>
       <c r="AB6" t="n">
-        <v>137.6658126144188</v>
+        <v>190.7558042749001</v>
       </c>
       <c r="AC6" t="n">
-        <v>124.5271806737171</v>
+        <v>172.5503380424102</v>
       </c>
       <c r="AD6" t="n">
-        <v>100614.9494198102</v>
+        <v>139416.4987963359</v>
       </c>
       <c r="AE6" t="n">
-        <v>137665.8126144188</v>
+        <v>190755.8042749001</v>
       </c>
       <c r="AF6" t="n">
         <v>2.471713381903332e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>7</v>
+        <v>6.779166666666666</v>
       </c>
       <c r="AH6" t="n">
-        <v>124527.1806737171</v>
+        <v>172550.3380424102</v>
       </c>
     </row>
     <row r="7">
@@ -6513,28 +6513,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>99.70462803875408</v>
+        <v>138.5061774152798</v>
       </c>
       <c r="AB7" t="n">
-        <v>136.4202707403135</v>
+        <v>189.5102624007949</v>
       </c>
       <c r="AC7" t="n">
-        <v>123.400511567947</v>
+        <v>171.4236689366402</v>
       </c>
       <c r="AD7" t="n">
-        <v>99704.62803875408</v>
+        <v>138506.1774152798</v>
       </c>
       <c r="AE7" t="n">
-        <v>136420.2707403135</v>
+        <v>189510.2624007949</v>
       </c>
       <c r="AF7" t="n">
         <v>2.495121739183049e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>7</v>
+        <v>6.716666666666668</v>
       </c>
       <c r="AH7" t="n">
-        <v>123400.511567947</v>
+        <v>171423.6689366402</v>
       </c>
     </row>
   </sheetData>
@@ -6810,28 +6810,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>96.21058378579021</v>
+        <v>132.9686572383037</v>
       </c>
       <c r="AB2" t="n">
-        <v>131.6395652470574</v>
+        <v>181.9335829965114</v>
       </c>
       <c r="AC2" t="n">
-        <v>119.0760698972035</v>
+        <v>164.5700971807628</v>
       </c>
       <c r="AD2" t="n">
-        <v>96210.58378579021</v>
+        <v>132968.6572383037</v>
       </c>
       <c r="AE2" t="n">
-        <v>131639.5652470574</v>
+        <v>181933.5829965114</v>
       </c>
       <c r="AF2" t="n">
         <v>3.924841351796155e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.654166666666668</v>
       </c>
       <c r="AH2" t="n">
-        <v>119076.0698972035</v>
+        <v>164570.0971807629</v>
       </c>
     </row>
   </sheetData>
@@ -7107,28 +7107,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>183.3123161369833</v>
+        <v>240.8088134197601</v>
       </c>
       <c r="AB2" t="n">
-        <v>250.8159981071303</v>
+        <v>329.4852422558242</v>
       </c>
       <c r="AC2" t="n">
-        <v>226.8784712703229</v>
+        <v>298.0396331704682</v>
       </c>
       <c r="AD2" t="n">
-        <v>183312.3161369833</v>
+        <v>240808.8134197601</v>
       </c>
       <c r="AE2" t="n">
-        <v>250815.9981071303</v>
+        <v>329485.2422558242</v>
       </c>
       <c r="AF2" t="n">
         <v>1.698025676517335e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.99583333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>226878.4712703229</v>
+        <v>298039.6331704682</v>
       </c>
     </row>
     <row r="3">
@@ -7213,28 +7213,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>116.1584134893015</v>
+        <v>154.5121886236732</v>
       </c>
       <c r="AB3" t="n">
-        <v>158.9330658835245</v>
+        <v>211.4103930714856</v>
       </c>
       <c r="AC3" t="n">
-        <v>143.7647171396036</v>
+        <v>191.2336818731537</v>
       </c>
       <c r="AD3" t="n">
-        <v>116158.4134893015</v>
+        <v>154512.1886236732</v>
       </c>
       <c r="AE3" t="n">
-        <v>158933.0658835245</v>
+        <v>211410.3930714856</v>
       </c>
       <c r="AF3" t="n">
         <v>2.424329627996429e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.704166666666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>143764.7171396036</v>
+        <v>191233.6818731537</v>
       </c>
     </row>
     <row r="4">
@@ -7319,28 +7319,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>98.42855834695813</v>
+        <v>136.748168062549</v>
       </c>
       <c r="AB4" t="n">
-        <v>134.6742958917775</v>
+        <v>187.1048764464909</v>
       </c>
       <c r="AC4" t="n">
-        <v>121.8211701084637</v>
+        <v>169.2478496418338</v>
       </c>
       <c r="AD4" t="n">
-        <v>98428.55834695813</v>
+        <v>136748.168062549</v>
       </c>
       <c r="AE4" t="n">
-        <v>134674.2958917776</v>
+        <v>187104.8764464909</v>
       </c>
       <c r="AF4" t="n">
         <v>2.689287604125296e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.941666666666666</v>
       </c>
       <c r="AH4" t="n">
-        <v>121821.1701084637</v>
+        <v>169247.8496418338</v>
       </c>
     </row>
     <row r="5">
@@ -7425,28 +7425,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>95.73958223132772</v>
+        <v>134.0591919469186</v>
       </c>
       <c r="AB5" t="n">
-        <v>130.9951201411201</v>
+        <v>183.4257006958334</v>
       </c>
       <c r="AC5" t="n">
-        <v>118.4931297276922</v>
+        <v>165.9198092610624</v>
       </c>
       <c r="AD5" t="n">
-        <v>95739.58223132772</v>
+        <v>134059.1919469186</v>
       </c>
       <c r="AE5" t="n">
-        <v>130995.1201411201</v>
+        <v>183425.7006958334</v>
       </c>
       <c r="AF5" t="n">
         <v>2.774753581878636e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>7</v>
+        <v>6.729166666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>118493.1297276922</v>
+        <v>165919.8092610624</v>
       </c>
     </row>
     <row r="6">
@@ -7531,28 +7531,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>95.89181893679273</v>
+        <v>134.2114286523836</v>
       </c>
       <c r="AB6" t="n">
-        <v>131.2034171177466</v>
+        <v>183.6339976724599</v>
       </c>
       <c r="AC6" t="n">
-        <v>118.6815471332162</v>
+        <v>166.1082266665863</v>
       </c>
       <c r="AD6" t="n">
-        <v>95891.81893679273</v>
+        <v>134211.4286523836</v>
       </c>
       <c r="AE6" t="n">
-        <v>131203.4171177466</v>
+        <v>183633.99767246</v>
       </c>
       <c r="AF6" t="n">
         <v>2.774574313965152e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>7</v>
+        <v>6.729166666666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>118681.5471332162</v>
+        <v>166108.2266665864</v>
       </c>
     </row>
   </sheetData>
@@ -7828,28 +7828,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>224.1808470313883</v>
+        <v>282.0200698242663</v>
       </c>
       <c r="AB2" t="n">
-        <v>306.7341250691612</v>
+        <v>385.8723013809413</v>
       </c>
       <c r="AC2" t="n">
-        <v>277.4598506766995</v>
+        <v>349.0451905123199</v>
       </c>
       <c r="AD2" t="n">
-        <v>224180.8470313883</v>
+        <v>282020.0698242662</v>
       </c>
       <c r="AE2" t="n">
-        <v>306734.1250691612</v>
+        <v>385872.3013809413</v>
       </c>
       <c r="AF2" t="n">
         <v>1.451510320592113e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.14166666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>277459.8506766995</v>
+        <v>349045.1905123199</v>
       </c>
     </row>
     <row r="3">
@@ -7934,28 +7934,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>132.6179801682853</v>
+        <v>171.1550220943002</v>
       </c>
       <c r="AB3" t="n">
-        <v>181.453771158532</v>
+        <v>234.1818520559794</v>
       </c>
       <c r="AC3" t="n">
-        <v>164.1360779111799</v>
+        <v>211.831864772118</v>
       </c>
       <c r="AD3" t="n">
-        <v>132617.9801682853</v>
+        <v>171155.0220943002</v>
       </c>
       <c r="AE3" t="n">
-        <v>181453.771158532</v>
+        <v>234181.8520559794</v>
       </c>
       <c r="AF3" t="n">
         <v>2.191310171563053e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.041666666666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>164136.0779111799</v>
+        <v>211831.864772118</v>
       </c>
     </row>
     <row r="4">
@@ -8040,28 +8040,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>113.5923714546017</v>
+        <v>142.5124883659676</v>
       </c>
       <c r="AB4" t="n">
-        <v>155.4220939658652</v>
+        <v>194.9918737894881</v>
       </c>
       <c r="AC4" t="n">
-        <v>140.5888274540845</v>
+        <v>176.3821230278882</v>
       </c>
       <c r="AD4" t="n">
-        <v>113592.3714546017</v>
+        <v>142512.4883659676</v>
       </c>
       <c r="AE4" t="n">
-        <v>155422.0939658652</v>
+        <v>194991.8737894881</v>
       </c>
       <c r="AF4" t="n">
         <v>2.449148694645617e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>8</v>
+        <v>7.195833333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>140588.8274540845</v>
+        <v>176382.1230278882</v>
       </c>
     </row>
     <row r="5">
@@ -8146,28 +8146,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>99.07620567553452</v>
+        <v>137.646401990473</v>
       </c>
       <c r="AB5" t="n">
-        <v>135.5604355389189</v>
+        <v>188.33387973396</v>
       </c>
       <c r="AC5" t="n">
-        <v>122.622737831387</v>
+        <v>170.3595585804642</v>
       </c>
       <c r="AD5" t="n">
-        <v>99076.20567553453</v>
+        <v>137646.401990473</v>
       </c>
       <c r="AE5" t="n">
-        <v>135560.4355389189</v>
+        <v>188333.87973396</v>
       </c>
       <c r="AF5" t="n">
         <v>2.589341781683454e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>7</v>
+        <v>6.808333333333334</v>
       </c>
       <c r="AH5" t="n">
-        <v>122622.737831387</v>
+        <v>170359.5585804642</v>
       </c>
     </row>
     <row r="6">
@@ -8252,28 +8252,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>97.74260706713342</v>
+        <v>136.3128033820719</v>
       </c>
       <c r="AB6" t="n">
-        <v>133.7357470886871</v>
+        <v>186.5091912837282</v>
       </c>
       <c r="AC6" t="n">
-        <v>120.9721950858784</v>
+        <v>168.7090158349557</v>
       </c>
       <c r="AD6" t="n">
-        <v>97742.60706713342</v>
+        <v>136312.8033820719</v>
       </c>
       <c r="AE6" t="n">
-        <v>133735.7470886871</v>
+        <v>186509.1912837282</v>
       </c>
       <c r="AF6" t="n">
         <v>2.623057499960205e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>7</v>
+        <v>6.720833333333332</v>
       </c>
       <c r="AH6" t="n">
-        <v>120972.1950858784</v>
+        <v>168709.0158349557</v>
       </c>
     </row>
   </sheetData>
@@ -8549,28 +8549,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>318.4442028876836</v>
+        <v>396.445397475368</v>
       </c>
       <c r="AB2" t="n">
-        <v>435.709407157649</v>
+        <v>542.4340827623582</v>
       </c>
       <c r="AC2" t="n">
-        <v>394.1259128605159</v>
+        <v>490.6649352145347</v>
       </c>
       <c r="AD2" t="n">
-        <v>318444.2028876836</v>
+        <v>396445.397475368</v>
       </c>
       <c r="AE2" t="n">
-        <v>435709.4071576491</v>
+        <v>542434.0827623582</v>
       </c>
       <c r="AF2" t="n">
         <v>1.054961701841907e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>15.1875</v>
       </c>
       <c r="AH2" t="n">
-        <v>394125.9128605159</v>
+        <v>490664.9352145347</v>
       </c>
     </row>
     <row r="3">
@@ -8655,28 +8655,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>147.3938443709612</v>
+        <v>196.1738538360357</v>
       </c>
       <c r="AB3" t="n">
-        <v>201.6707604257453</v>
+        <v>268.4137213979623</v>
       </c>
       <c r="AC3" t="n">
-        <v>182.4235860974595</v>
+        <v>242.7966925488433</v>
       </c>
       <c r="AD3" t="n">
-        <v>147393.8443709612</v>
+        <v>196173.8538360357</v>
       </c>
       <c r="AE3" t="n">
-        <v>201670.7604257453</v>
+        <v>268413.7213979622</v>
       </c>
       <c r="AF3" t="n">
         <v>1.821080865772008e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AH3" t="n">
-        <v>182423.5860974595</v>
+        <v>242796.6925488433</v>
       </c>
     </row>
     <row r="4">
@@ -8761,28 +8761,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>123.7857135396683</v>
+        <v>162.8370534467526</v>
       </c>
       <c r="AB4" t="n">
-        <v>169.369074305161</v>
+        <v>222.8008403895327</v>
       </c>
       <c r="AC4" t="n">
-        <v>153.2047275645122</v>
+        <v>201.5370408857632</v>
       </c>
       <c r="AD4" t="n">
-        <v>123785.7135396683</v>
+        <v>162837.0534467526</v>
       </c>
       <c r="AE4" t="n">
-        <v>169369.074305161</v>
+        <v>222800.8403895327</v>
       </c>
       <c r="AF4" t="n">
         <v>2.096348458152877e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>8</v>
+        <v>7.641666666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>153204.7275645122</v>
+        <v>201537.0408857632</v>
       </c>
     </row>
     <row r="5">
@@ -8867,28 +8867,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>118.4331431876234</v>
+        <v>147.688493729013</v>
       </c>
       <c r="AB5" t="n">
-        <v>162.0454514107587</v>
+        <v>202.0739126764439</v>
       </c>
       <c r="AC5" t="n">
-        <v>146.5800609603801</v>
+        <v>182.7882620631792</v>
       </c>
       <c r="AD5" t="n">
-        <v>118433.1431876234</v>
+        <v>147688.493729013</v>
       </c>
       <c r="AE5" t="n">
-        <v>162045.4514107587</v>
+        <v>202073.9126764438</v>
       </c>
       <c r="AF5" t="n">
         <v>2.225714228028435e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>8</v>
+        <v>7.2</v>
       </c>
       <c r="AH5" t="n">
-        <v>146580.06096038</v>
+        <v>182788.2620631792</v>
       </c>
     </row>
     <row r="6">
@@ -8973,28 +8973,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>104.7609342966094</v>
+        <v>143.7781087849129</v>
       </c>
       <c r="AB6" t="n">
-        <v>143.3385320307964</v>
+        <v>196.7235514819204</v>
       </c>
       <c r="AC6" t="n">
-        <v>129.6585037107092</v>
+        <v>177.9485318317803</v>
       </c>
       <c r="AD6" t="n">
-        <v>104760.9342966094</v>
+        <v>143778.1087849129</v>
       </c>
       <c r="AE6" t="n">
-        <v>143338.5320307964</v>
+        <v>196723.5514819204</v>
       </c>
       <c r="AF6" t="n">
         <v>2.317393180282694e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>7</v>
+        <v>6.912500000000001</v>
       </c>
       <c r="AH6" t="n">
-        <v>129658.5037107092</v>
+        <v>177948.5318317803</v>
       </c>
     </row>
     <row r="7">
@@ -9079,28 +9079,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>102.2534250433145</v>
+        <v>141.2705995316179</v>
       </c>
       <c r="AB7" t="n">
-        <v>139.9076472469391</v>
+        <v>193.2926666980632</v>
       </c>
       <c r="AC7" t="n">
-        <v>126.5550577553451</v>
+        <v>174.8450858764162</v>
       </c>
       <c r="AD7" t="n">
-        <v>102253.4250433145</v>
+        <v>141270.5995316179</v>
       </c>
       <c r="AE7" t="n">
-        <v>139907.6472469392</v>
+        <v>193292.6666980632</v>
       </c>
       <c r="AF7" t="n">
         <v>2.374423333887169e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>7</v>
+        <v>6.75</v>
       </c>
       <c r="AH7" t="n">
-        <v>126555.0577553451</v>
+        <v>174845.0858764162</v>
       </c>
     </row>
     <row r="8">
@@ -9185,28 +9185,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>101.5567307337964</v>
+        <v>140.5739052220998</v>
       </c>
       <c r="AB8" t="n">
-        <v>138.9543993566733</v>
+        <v>192.3394188077972</v>
       </c>
       <c r="AC8" t="n">
-        <v>125.6927865058341</v>
+        <v>173.9828146269052</v>
       </c>
       <c r="AD8" t="n">
-        <v>101556.7307337964</v>
+        <v>140573.9052220998</v>
       </c>
       <c r="AE8" t="n">
-        <v>138954.3993566733</v>
+        <v>192339.4188077973</v>
       </c>
       <c r="AF8" t="n">
         <v>2.388498206590634e-05</v>
       </c>
       <c r="AG8" t="n">
-        <v>7</v>
+        <v>6.708333333333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>125692.7865058341</v>
+        <v>173982.8146269052</v>
       </c>
     </row>
   </sheetData>
@@ -9482,28 +9482,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>155.6077949993312</v>
+        <v>212.6579160970052</v>
       </c>
       <c r="AB2" t="n">
-        <v>212.9094500494022</v>
+        <v>290.9679426089114</v>
       </c>
       <c r="AC2" t="n">
-        <v>192.589670957038</v>
+        <v>263.1983705424749</v>
       </c>
       <c r="AD2" t="n">
-        <v>155607.7949993312</v>
+        <v>212657.9160970052</v>
       </c>
       <c r="AE2" t="n">
-        <v>212909.4500494022</v>
+        <v>290967.9426089114</v>
       </c>
       <c r="AF2" t="n">
         <v>2.009495427627511e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.941666666666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>192589.670957038</v>
+        <v>263198.3705424749</v>
       </c>
     </row>
     <row r="3">
@@ -9588,28 +9588,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>109.4006685831028</v>
+        <v>147.3781513134413</v>
       </c>
       <c r="AB3" t="n">
-        <v>149.6868211722038</v>
+        <v>201.6492884921178</v>
       </c>
       <c r="AC3" t="n">
-        <v>135.4009210463424</v>
+        <v>182.4041634150412</v>
       </c>
       <c r="AD3" t="n">
-        <v>109400.6685831028</v>
+        <v>147378.1513134413</v>
       </c>
       <c r="AE3" t="n">
-        <v>149686.8211722038</v>
+        <v>201649.2884921178</v>
       </c>
       <c r="AF3" t="n">
         <v>2.720220919434407e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.341666666666668</v>
       </c>
       <c r="AH3" t="n">
-        <v>135400.9210463424</v>
+        <v>182404.1634150412</v>
       </c>
     </row>
     <row r="4">
@@ -9694,28 +9694,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>93.88316719663609</v>
+        <v>131.927969734679</v>
       </c>
       <c r="AB4" t="n">
-        <v>128.4550911914051</v>
+        <v>180.5096684421605</v>
       </c>
       <c r="AC4" t="n">
-        <v>116.1955175759842</v>
+        <v>163.282079033002</v>
       </c>
       <c r="AD4" t="n">
-        <v>93883.16719663609</v>
+        <v>131927.969734679</v>
       </c>
       <c r="AE4" t="n">
-        <v>128455.0911914051</v>
+        <v>180509.6684421605</v>
       </c>
       <c r="AF4" t="n">
         <v>2.945975141418803e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.779166666666666</v>
       </c>
       <c r="AH4" t="n">
-        <v>116195.5175759842</v>
+        <v>163282.079033002</v>
       </c>
     </row>
     <row r="5">
@@ -9800,28 +9800,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>94.00476305414783</v>
+        <v>132.0495655921907</v>
       </c>
       <c r="AB5" t="n">
-        <v>128.6214640080832</v>
+        <v>180.6760412588386</v>
       </c>
       <c r="AC5" t="n">
-        <v>116.3460120045443</v>
+        <v>163.4325734615622</v>
       </c>
       <c r="AD5" t="n">
-        <v>94004.76305414783</v>
+        <v>132049.5655921907</v>
       </c>
       <c r="AE5" t="n">
-        <v>128621.4640080832</v>
+        <v>180676.0412588386</v>
       </c>
       <c r="AF5" t="n">
         <v>2.943817795912475e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>7</v>
+        <v>6.787499999999999</v>
       </c>
       <c r="AH5" t="n">
-        <v>116346.0120045443</v>
+        <v>163432.5734615622</v>
       </c>
     </row>
   </sheetData>
@@ -10097,28 +10097,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>124.7735034043409</v>
+        <v>171.7440048287935</v>
       </c>
       <c r="AB2" t="n">
-        <v>170.7206119762184</v>
+        <v>234.9877242173971</v>
       </c>
       <c r="AC2" t="n">
-        <v>154.4272763771394</v>
+        <v>212.560825625499</v>
       </c>
       <c r="AD2" t="n">
-        <v>124773.5034043409</v>
+        <v>171744.0048287935</v>
       </c>
       <c r="AE2" t="n">
-        <v>170720.6119762184</v>
+        <v>234987.7242173971</v>
       </c>
       <c r="AF2" t="n">
         <v>2.641172823490232e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.6</v>
       </c>
       <c r="AH2" t="n">
-        <v>154427.2763771394</v>
+        <v>212560.825625499</v>
       </c>
     </row>
     <row r="3">
@@ -10203,28 +10203,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>90.97825175333419</v>
+        <v>128.5478198091402</v>
       </c>
       <c r="AB3" t="n">
-        <v>124.4804577260568</v>
+        <v>175.8847981923502</v>
       </c>
       <c r="AC3" t="n">
-        <v>112.6002175501344</v>
+        <v>159.0985999087861</v>
       </c>
       <c r="AD3" t="n">
-        <v>90978.25175333419</v>
+        <v>128547.8198091401</v>
       </c>
       <c r="AE3" t="n">
-        <v>124480.4577260568</v>
+        <v>175884.7981923503</v>
       </c>
       <c r="AF3" t="n">
         <v>3.268608773179043e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.95</v>
       </c>
       <c r="AH3" t="n">
-        <v>112600.2175501344</v>
+        <v>159098.5999087861</v>
       </c>
     </row>
     <row r="4">
@@ -10309,28 +10309,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>91.18016822840058</v>
+        <v>128.7497362842065</v>
       </c>
       <c r="AB4" t="n">
-        <v>124.7567287551687</v>
+        <v>176.1610692214622</v>
       </c>
       <c r="AC4" t="n">
-        <v>112.8501216599768</v>
+        <v>159.3485040186285</v>
       </c>
       <c r="AD4" t="n">
-        <v>91180.16822840058</v>
+        <v>128749.7362842065</v>
       </c>
       <c r="AE4" t="n">
-        <v>124756.7287551687</v>
+        <v>176161.0692214622</v>
       </c>
       <c r="AF4" t="n">
         <v>3.265338038428276e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.954166666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>112850.1216599768</v>
+        <v>159348.5040186285</v>
       </c>
     </row>
   </sheetData>
@@ -18227,28 +18227,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>102.899451675383</v>
+        <v>140.1233213459917</v>
       </c>
       <c r="AB2" t="n">
-        <v>140.7915693856185</v>
+        <v>191.7229100701488</v>
       </c>
       <c r="AC2" t="n">
-        <v>127.3546196057016</v>
+        <v>173.4251446179023</v>
       </c>
       <c r="AD2" t="n">
-        <v>102899.451675383</v>
+        <v>140123.3213459917</v>
       </c>
       <c r="AE2" t="n">
-        <v>140791.5693856185</v>
+        <v>191722.9100701488</v>
       </c>
       <c r="AF2" t="n">
         <v>3.290246468857374e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.754166666666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>127354.6196057016</v>
+        <v>173425.1446179023</v>
       </c>
     </row>
     <row r="3">
@@ -18333,28 +18333,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>98.36178975551158</v>
+        <v>126.2465376195445</v>
       </c>
       <c r="AB3" t="n">
-        <v>134.5829401593381</v>
+        <v>172.7360823751422</v>
       </c>
       <c r="AC3" t="n">
-        <v>121.7385332389096</v>
+        <v>156.250393109921</v>
       </c>
       <c r="AD3" t="n">
-        <v>98361.78975551158</v>
+        <v>126246.5376195445</v>
       </c>
       <c r="AE3" t="n">
-        <v>134582.9401593381</v>
+        <v>172736.0823751422</v>
       </c>
       <c r="AF3" t="n">
         <v>3.563714344499498e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.158333333333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>121738.5332389096</v>
+        <v>156250.393109921</v>
       </c>
     </row>
   </sheetData>
@@ -18630,28 +18630,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>104.559048820341</v>
+        <v>140.9625908213919</v>
       </c>
       <c r="AB2" t="n">
-        <v>143.0623034156075</v>
+        <v>192.8712355923469</v>
       </c>
       <c r="AC2" t="n">
-        <v>129.4086379668645</v>
+        <v>174.4638755639471</v>
       </c>
       <c r="AD2" t="n">
-        <v>104559.048820341</v>
+        <v>140962.5908213919</v>
       </c>
       <c r="AE2" t="n">
-        <v>143062.3034156075</v>
+        <v>192871.2355923469</v>
       </c>
       <c r="AF2" t="n">
         <v>4.1257512589228e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.179166666666665</v>
       </c>
       <c r="AH2" t="n">
-        <v>129408.6379668645</v>
+        <v>174463.8755639471</v>
       </c>
     </row>
   </sheetData>
@@ -18927,28 +18927,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>202.6596949589414</v>
+        <v>260.3823061122471</v>
       </c>
       <c r="AB2" t="n">
-        <v>277.2879353574333</v>
+        <v>356.2665584793933</v>
       </c>
       <c r="AC2" t="n">
-        <v>250.8239639830628</v>
+        <v>322.2649781613745</v>
       </c>
       <c r="AD2" t="n">
-        <v>202659.6949589414</v>
+        <v>260382.3061122471</v>
       </c>
       <c r="AE2" t="n">
-        <v>277287.9353574333</v>
+        <v>356266.5584793933</v>
       </c>
       <c r="AF2" t="n">
         <v>1.573594578240052e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.51666666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>250823.9639830628</v>
+        <v>322264.9781613745</v>
       </c>
     </row>
     <row r="3">
@@ -19033,28 +19033,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>119.3665374696176</v>
+        <v>157.8482782384858</v>
       </c>
       <c r="AB3" t="n">
-        <v>163.322562645832</v>
+        <v>215.9749780603565</v>
       </c>
       <c r="AC3" t="n">
-        <v>147.7352864916152</v>
+        <v>195.3626292771234</v>
       </c>
       <c r="AD3" t="n">
-        <v>119366.5374696176</v>
+        <v>157848.2782384858</v>
       </c>
       <c r="AE3" t="n">
-        <v>163322.562645832</v>
+        <v>215974.9780603565</v>
       </c>
       <c r="AF3" t="n">
         <v>2.30673819479853e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.858333333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>147735.2864916152</v>
+        <v>195362.6292771234</v>
       </c>
     </row>
     <row r="4">
@@ -19139,28 +19139,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>111.005958493437</v>
+        <v>139.8341096811646</v>
       </c>
       <c r="AB4" t="n">
-        <v>151.8832496479147</v>
+        <v>191.3271979112144</v>
       </c>
       <c r="AC4" t="n">
-        <v>137.3877254710388</v>
+        <v>173.0671986720309</v>
       </c>
       <c r="AD4" t="n">
-        <v>111005.958493437</v>
+        <v>139834.1096811646</v>
       </c>
       <c r="AE4" t="n">
-        <v>151883.2496479147</v>
+        <v>191327.1979112144</v>
       </c>
       <c r="AF4" t="n">
         <v>2.557237992351795e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>8</v>
+        <v>7.087500000000001</v>
       </c>
       <c r="AH4" t="n">
-        <v>137387.7254710388</v>
+        <v>173067.1986720309</v>
       </c>
     </row>
     <row r="5">
@@ -19245,28 +19245,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>97.01934528804792</v>
+        <v>135.4669206381354</v>
       </c>
       <c r="AB5" t="n">
-        <v>132.7461484144851</v>
+        <v>185.351817195762</v>
       </c>
       <c r="AC5" t="n">
-        <v>120.0770423202315</v>
+        <v>167.6620999055598</v>
       </c>
       <c r="AD5" t="n">
-        <v>97019.34528804792</v>
+        <v>135466.9206381354</v>
       </c>
       <c r="AE5" t="n">
-        <v>132746.1484144851</v>
+        <v>185351.8171957619</v>
       </c>
       <c r="AF5" t="n">
         <v>2.689425678541128e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>7</v>
+        <v>6.737500000000001</v>
       </c>
       <c r="AH5" t="n">
-        <v>120077.0423202315</v>
+        <v>167662.0999055598</v>
       </c>
     </row>
     <row r="6">
@@ -19351,28 +19351,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>96.71892870544625</v>
+        <v>135.1665040555337</v>
       </c>
       <c r="AB6" t="n">
-        <v>132.3351051927255</v>
+        <v>184.9407739740023</v>
       </c>
       <c r="AC6" t="n">
-        <v>119.7052284866537</v>
+        <v>167.290286071982</v>
       </c>
       <c r="AD6" t="n">
-        <v>96718.92870544625</v>
+        <v>135166.5040555337</v>
       </c>
       <c r="AE6" t="n">
-        <v>132335.1051927255</v>
+        <v>184940.7739740023</v>
       </c>
       <c r="AF6" t="n">
         <v>2.700343450582432e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>7</v>
+        <v>6.712499999999999</v>
       </c>
       <c r="AH6" t="n">
-        <v>119705.2284866537</v>
+        <v>167290.286071982</v>
       </c>
     </row>
   </sheetData>
@@ -19648,28 +19648,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>287.8020751689501</v>
+        <v>355.8890569119652</v>
       </c>
       <c r="AB2" t="n">
-        <v>393.7834961776107</v>
+        <v>486.9431083840417</v>
       </c>
       <c r="AC2" t="n">
-        <v>356.2013519810268</v>
+        <v>440.469941548813</v>
       </c>
       <c r="AD2" t="n">
-        <v>287802.0751689501</v>
+        <v>355889.0569119651</v>
       </c>
       <c r="AE2" t="n">
-        <v>393783.4961776107</v>
+        <v>486943.1083840417</v>
       </c>
       <c r="AF2" t="n">
         <v>1.147907766064139e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.26666666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>356201.3519810268</v>
+        <v>440469.941548813</v>
       </c>
     </row>
     <row r="3">
@@ -19754,28 +19754,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>143.3648875115567</v>
+        <v>192.0123660575749</v>
       </c>
       <c r="AB3" t="n">
-        <v>196.1581639056788</v>
+        <v>262.7197902275915</v>
       </c>
       <c r="AC3" t="n">
-        <v>177.4371040522886</v>
+        <v>237.6461821778883</v>
       </c>
       <c r="AD3" t="n">
-        <v>143364.8875115567</v>
+        <v>192012.3660575749</v>
       </c>
       <c r="AE3" t="n">
-        <v>196158.1639056788</v>
+        <v>262719.7902275915</v>
       </c>
       <c r="AF3" t="n">
         <v>1.907336440168477e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.5875</v>
       </c>
       <c r="AH3" t="n">
-        <v>177437.1040522886</v>
+        <v>237646.1821778883</v>
       </c>
     </row>
     <row r="4">
@@ -19860,28 +19860,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>121.1635793195984</v>
+        <v>160.1088944914376</v>
       </c>
       <c r="AB4" t="n">
-        <v>165.7813545848656</v>
+        <v>219.068052948994</v>
       </c>
       <c r="AC4" t="n">
-        <v>149.9594147789244</v>
+        <v>198.1605054395482</v>
       </c>
       <c r="AD4" t="n">
-        <v>121163.5793195984</v>
+        <v>160108.8944914376</v>
       </c>
       <c r="AE4" t="n">
-        <v>165781.3545848656</v>
+        <v>219068.052948994</v>
       </c>
       <c r="AF4" t="n">
         <v>2.175938839445418e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>8</v>
+        <v>7.524999999999999</v>
       </c>
       <c r="AH4" t="n">
-        <v>149959.4147789244</v>
+        <v>198160.5054395482</v>
       </c>
     </row>
     <row r="5">
@@ -19966,28 +19966,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>115.9556227462084</v>
+        <v>145.1314547361642</v>
       </c>
       <c r="AB5" t="n">
-        <v>158.6555986423286</v>
+        <v>198.5752591178312</v>
       </c>
       <c r="AC5" t="n">
-        <v>143.5137309824796</v>
+        <v>179.6235150898083</v>
       </c>
       <c r="AD5" t="n">
-        <v>115955.6227462084</v>
+        <v>145131.4547361642</v>
       </c>
       <c r="AE5" t="n">
-        <v>158655.5986423286</v>
+        <v>198575.2591178312</v>
       </c>
       <c r="AF5" t="n">
         <v>2.311537065594883e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>8</v>
+        <v>7.083333333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>143513.7309824796</v>
+        <v>179623.5150898083</v>
       </c>
     </row>
     <row r="6">
@@ -20072,28 +20072,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>102.8523001309617</v>
+        <v>141.7634498840201</v>
       </c>
       <c r="AB6" t="n">
-        <v>140.7270545623619</v>
+        <v>193.9670062932425</v>
       </c>
       <c r="AC6" t="n">
-        <v>127.2962619866296</v>
+        <v>175.4550674470734</v>
       </c>
       <c r="AD6" t="n">
-        <v>102852.3001309617</v>
+        <v>141763.4498840201</v>
       </c>
       <c r="AE6" t="n">
-        <v>140727.0545623619</v>
+        <v>193967.0062932425</v>
       </c>
       <c r="AF6" t="n">
         <v>2.388572579581246e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>7</v>
+        <v>6.854166666666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>127296.2619866296</v>
+        <v>175455.0674470734</v>
       </c>
     </row>
     <row r="7">
@@ -20178,28 +20178,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>100.7608226831718</v>
+        <v>139.6719724362301</v>
       </c>
       <c r="AB7" t="n">
-        <v>137.8654028488242</v>
+        <v>191.1053545797048</v>
       </c>
       <c r="AC7" t="n">
-        <v>124.7077222962776</v>
+        <v>172.8665277567214</v>
       </c>
       <c r="AD7" t="n">
-        <v>100760.8226831718</v>
+        <v>139671.9724362301</v>
       </c>
       <c r="AE7" t="n">
-        <v>137865.4028488242</v>
+        <v>191105.3545797048</v>
       </c>
       <c r="AF7" t="n">
         <v>2.438488448337716e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>7</v>
+        <v>6.716666666666668</v>
       </c>
       <c r="AH7" t="n">
-        <v>124707.7222962776</v>
+        <v>172866.5277567214</v>
       </c>
     </row>
     <row r="8">
@@ -20284,28 +20284,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>100.7411658037319</v>
+        <v>139.6523155567902</v>
       </c>
       <c r="AB8" t="n">
-        <v>137.8385074391742</v>
+        <v>191.0784591700548</v>
       </c>
       <c r="AC8" t="n">
-        <v>124.6833937467766</v>
+        <v>172.8421992072205</v>
       </c>
       <c r="AD8" t="n">
-        <v>100741.1658037319</v>
+        <v>139652.3155567902</v>
       </c>
       <c r="AE8" t="n">
-        <v>137838.5074391742</v>
+        <v>191078.4591700548</v>
       </c>
       <c r="AF8" t="n">
         <v>2.440178513185376e-05</v>
       </c>
       <c r="AG8" t="n">
-        <v>7</v>
+        <v>6.712499999999999</v>
       </c>
       <c r="AH8" t="n">
-        <v>124683.3937467766</v>
+        <v>172842.1992072205</v>
       </c>
     </row>
   </sheetData>
@@ -20581,28 +20581,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>113.1871897173864</v>
+        <v>158.2340512795863</v>
       </c>
       <c r="AB2" t="n">
-        <v>154.8677064376507</v>
+        <v>216.5028097542953</v>
       </c>
       <c r="AC2" t="n">
-        <v>140.0873498934749</v>
+        <v>195.8400854550093</v>
       </c>
       <c r="AD2" t="n">
-        <v>113187.1897173864</v>
+        <v>158234.0512795863</v>
       </c>
       <c r="AE2" t="n">
-        <v>154867.7064376507</v>
+        <v>216502.8097542953</v>
       </c>
       <c r="AF2" t="n">
         <v>4.261247251564375e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.324999999999999</v>
       </c>
       <c r="AH2" t="n">
-        <v>140087.3498934749</v>
+        <v>195840.0854550093</v>
       </c>
     </row>
   </sheetData>
@@ -20878,28 +20878,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>140.8867440101781</v>
+        <v>178.6260210633121</v>
       </c>
       <c r="AB2" t="n">
-        <v>192.767458639119</v>
+        <v>244.4040024425892</v>
       </c>
       <c r="AC2" t="n">
-        <v>174.3700029374834</v>
+        <v>221.0784274727111</v>
       </c>
       <c r="AD2" t="n">
-        <v>140886.7440101781</v>
+        <v>178626.0210633121</v>
       </c>
       <c r="AE2" t="n">
-        <v>192767.4586391191</v>
+        <v>244404.0024425891</v>
       </c>
       <c r="AF2" t="n">
         <v>2.398700481748941e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.029166666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>174370.0029374834</v>
+        <v>221078.4274727111</v>
       </c>
     </row>
     <row r="3">
@@ -20984,28 +20984,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>102.8649802537801</v>
+        <v>131.1611494463997</v>
       </c>
       <c r="AB3" t="n">
-        <v>140.7444040658096</v>
+        <v>179.4604710940138</v>
       </c>
       <c r="AC3" t="n">
-        <v>127.3119556778184</v>
+        <v>162.3330156072044</v>
       </c>
       <c r="AD3" t="n">
-        <v>102864.9802537801</v>
+        <v>131161.1494463997</v>
       </c>
       <c r="AE3" t="n">
-        <v>140744.4040658096</v>
+        <v>179460.4710940138</v>
       </c>
       <c r="AF3" t="n">
         <v>3.089397718681115e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.012499999999999</v>
       </c>
       <c r="AH3" t="n">
-        <v>127311.9556778184</v>
+        <v>162333.0156072044</v>
       </c>
     </row>
     <row r="4">
@@ -21090,28 +21090,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>91.99104181873373</v>
+        <v>129.7293078420105</v>
       </c>
       <c r="AB4" t="n">
-        <v>125.8662017746801</v>
+        <v>177.5013622424961</v>
       </c>
       <c r="AC4" t="n">
-        <v>113.8537081316614</v>
+        <v>160.5608813548484</v>
       </c>
       <c r="AD4" t="n">
-        <v>91991.04181873373</v>
+        <v>129729.3078420105</v>
       </c>
       <c r="AE4" t="n">
-        <v>125866.2017746801</v>
+        <v>177501.3622424961</v>
       </c>
       <c r="AF4" t="n">
         <v>3.150581631367889e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.875</v>
       </c>
       <c r="AH4" t="n">
-        <v>113853.7081316614</v>
+        <v>160560.8813548484</v>
       </c>
     </row>
   </sheetData>
@@ -21387,28 +21387,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>173.5167795491585</v>
+        <v>221.2241994870644</v>
       </c>
       <c r="AB2" t="n">
-        <v>237.4133127991004</v>
+        <v>302.6887094609356</v>
       </c>
       <c r="AC2" t="n">
-        <v>214.7549194373001</v>
+        <v>273.8005238563453</v>
       </c>
       <c r="AD2" t="n">
-        <v>173516.7795491585</v>
+        <v>221224.1994870644</v>
       </c>
       <c r="AE2" t="n">
-        <v>237413.3127991004</v>
+        <v>302688.7094609356</v>
       </c>
       <c r="AF2" t="n">
         <v>1.849188899224353e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.42916666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>214754.9194373002</v>
+        <v>273800.5238563453</v>
       </c>
     </row>
     <row r="3">
@@ -21493,28 +21493,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>112.7353447926908</v>
+        <v>150.955136589179</v>
       </c>
       <c r="AB3" t="n">
-        <v>154.2494722776913</v>
+        <v>206.5434775518327</v>
       </c>
       <c r="AC3" t="n">
-        <v>139.5281191340447</v>
+        <v>186.8312579399361</v>
       </c>
       <c r="AD3" t="n">
-        <v>112735.3447926908</v>
+        <v>150955.136589179</v>
       </c>
       <c r="AE3" t="n">
-        <v>154249.4722776913</v>
+        <v>206543.4775518327</v>
       </c>
       <c r="AF3" t="n">
         <v>2.565396654861359e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.516666666666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>139528.1191340447</v>
+        <v>186831.257939936</v>
       </c>
     </row>
     <row r="4">
@@ -21599,28 +21599,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>95.99966652188962</v>
+        <v>134.185292899597</v>
       </c>
       <c r="AB4" t="n">
-        <v>131.3509789415758</v>
+        <v>183.5982375824694</v>
       </c>
       <c r="AC4" t="n">
-        <v>118.8150258636835</v>
+        <v>166.0758794693949</v>
       </c>
       <c r="AD4" t="n">
-        <v>95999.66652188962</v>
+        <v>134185.2928995971</v>
       </c>
       <c r="AE4" t="n">
-        <v>131350.9789415758</v>
+        <v>183598.2375824694</v>
       </c>
       <c r="AF4" t="n">
         <v>2.815766185672486e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.850000000000001</v>
       </c>
       <c r="AH4" t="n">
-        <v>118815.0258636835</v>
+        <v>166075.8794693949</v>
       </c>
     </row>
     <row r="5">
@@ -21705,28 +21705,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>94.99750794697709</v>
+        <v>133.1831343246845</v>
       </c>
       <c r="AB5" t="n">
-        <v>129.9797813672652</v>
+        <v>182.2270400081588</v>
       </c>
       <c r="AC5" t="n">
-        <v>117.5746934613768</v>
+        <v>164.8355470670882</v>
       </c>
       <c r="AD5" t="n">
-        <v>94997.5079469771</v>
+        <v>133183.1343246845</v>
       </c>
       <c r="AE5" t="n">
-        <v>129979.7813672652</v>
+        <v>182227.0400081588</v>
       </c>
       <c r="AF5" t="n">
         <v>2.849324682592077e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>7</v>
+        <v>6.766666666666666</v>
       </c>
       <c r="AH5" t="n">
-        <v>117574.6934613768</v>
+        <v>164835.5470670882</v>
       </c>
     </row>
   </sheetData>
